--- a/0.일정/일정(최주희).xlsx
+++ b/0.일정/일정(최주희).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="590" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="570" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Css" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
     <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="180" formatCode="&quot;₩&quot;#,##0;\\\-&quot;₩&quot;#,##0"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
@@ -181,12 +181,6 @@
       <name val="맑은 고딕"/>
       <scheme val="minor"/>
       <color theme="0"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="1"/>
     </font>
     <font>
       <i/>
@@ -563,10 +557,10 @@
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -575,10 +569,10 @@
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -587,10 +581,10 @@
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -599,10 +593,10 @@
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -611,10 +605,10 @@
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -623,16 +617,16 @@
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1022,17 +1016,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.62500000" defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="1" style="1" width="20.62999916" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="2" style="1" width="20.62999916" customWidth="1" outlineLevel="0"/>
-    <col min="3" max="3" style="1" width="20.62999916" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="3" style="1" width="20.62999916" customWidth="1" outlineLevel="0"/>
     <col min="4" max="4" style="1" width="27.50499916" customWidth="1" outlineLevel="0"/>
     <col min="5" max="16384" style="1" width="20.62999916" customWidth="1" outlineLevel="0"/>
   </cols>
@@ -1082,78 +1074,156 @@
         <v>0</v>
       </c>
       <c r="F3" s="6">
-        <v>0.1</v>
+        <f>SUM(B3:E3)/4</f>
+        <v>0.35</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30.000000" customHeight="1">
       <c r="A4" s="4">
         <v>43547</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="3"/>
+      <c r="B4" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <f>SUM(B4:E4)/4</f>
+        <v>0.425</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="30.000000" customHeight="1">
       <c r="A5" s="4">
         <v>43548</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="3"/>
+      <c r="B5" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <f>SUM(B5:E5)/4</f>
+        <v>0.575</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="30.000000" customHeight="1">
       <c r="A6" s="4">
         <v>43549</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="3"/>
+      <c r="B6" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="6">
+        <f>SUM(B6:E6)/4</f>
+        <v>0.775</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="30.000000" customHeight="1">
       <c r="A7" s="4">
         <v>43550</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="3"/>
+      <c r="B7" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F7" s="6">
+        <f>SUM(B7:E7)/4</f>
+        <v>0.9</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="30.000000" customHeight="1">
       <c r="A8" s="4">
         <v>43551</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="3"/>
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F8" s="6">
+        <f>SUM(B8:E8)/4</f>
+        <v>0.95</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="30.000000" customHeight="1">
       <c r="A9" s="4">
         <v>43552</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="3"/>
+      <c r="B9" s="6">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="F9" s="6">
+        <f>SUM(B9:E9)/4</f>
+        <v>0.975</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="30.000000" customHeight="1">
       <c r="A10" s="4">
         <v>43553</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="3"/>
+      <c r="B10" s="6">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6">
+        <f>SUM(B10:E10)/4</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="30.000000" customHeight="1">
       <c r="B11" s="8"/>
